--- a/Barrido Castles.xlsx
+++ b/Barrido Castles.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jperecab/Desktop/app-incidencias/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mercadona365.sharepoint.com/sites/CobraralJefe-Lane5000_Incidencias/Documentos compartidos/app-incidencias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC7A7B7-37BD-5B44-898F-0732FBDBB1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{6DC7A7B7-37BD-5B44-898F-0732FBDBB1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB4F71CC-6007-0749-B344-3BE54E1501BD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{DD37FD51-E798-DB46-A1AA-F8398B51C9AE}"/>
+    <workbookView xWindow="-29040" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{DD37FD51-E798-DB46-A1AA-F8398B51C9AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$357</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="30">
   <si>
     <t>Centro</t>
   </si>
@@ -126,6 +129,9 @@
   </si>
   <si>
     <t>Fecha Instalacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HOSPITAL GENERAL</t>
   </si>
 </sst>
 </file>
@@ -1452,14 +1458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3C3A91-7800-E844-B19F-13C9423669F4}">
-  <dimension ref="A1:H348"/>
+  <dimension ref="A1:H357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="J338" sqref="J338"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="G354" sqref="G354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9853,7 +9860,376 @@
         <v>45554.53125</v>
       </c>
     </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A349" s="2">
+        <v>4411</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G349" s="5">
+        <v>45562.53125</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A350" s="2">
+        <v>4411</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G350" s="5">
+        <v>45562.53125</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A351" s="2">
+        <v>4411</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G351" s="5">
+        <v>45562.53125</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A352" s="2">
+        <v>2304</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G352" s="5">
+        <v>45562.53125</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A353" s="2">
+        <v>2304</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G353" s="5">
+        <v>45562.53125</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A354" s="2">
+        <v>2304</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G354" s="5">
+        <v>45562.53125</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A355" s="2">
+        <v>4772</v>
+      </c>
+      <c r="B355" t="s">
+        <v>29</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G355" s="5">
+        <v>45566.53125</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A356" s="2">
+        <v>4772</v>
+      </c>
+      <c r="B356" t="s">
+        <v>29</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G356" s="5">
+        <v>45566.53125</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A357" s="2">
+        <v>4772</v>
+      </c>
+      <c r="B357" t="s">
+        <v>29</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G357" s="5">
+        <v>45566.53125</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G357" xr:uid="{2E3C3A91-7800-E844-B19F-13C9423669F4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010019BEA7DDCE95554397EF968F05633347" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1e619dd3bd4591ac9c839210a8c8c9ac">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="23ed0473-180d-470e-a07f-e717023ca225" xmlns:ns3="be7b8944-c626-4a4c-966d-922ba241d8a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e8a7616da702416d6f6d1d80d0d674f" ns2:_="" ns3:_="">
+    <xsd:import namespace="23ed0473-180d-470e-a07f-e717023ca225"/>
+    <xsd:import namespace="be7b8944-c626-4a4c-966d-922ba241d8a4"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="23ed0473-180d-470e-a07f-e717023ca225" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="13" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="17" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="18" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="be7b8944-c626-4a4c-966d-922ba241d8a4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27067B9E-5692-430A-9B35-98DDABC02BD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="23ed0473-180d-470e-a07f-e717023ca225"/>
+    <ds:schemaRef ds:uri="be7b8944-c626-4a4c-966d-922ba241d8a4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3303437-30A1-414A-B699-67B68CBDAE3C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="23ed0473-180d-470e-a07f-e717023ca225"/>
+    <ds:schemaRef ds:uri="be7b8944-c626-4a4c-966d-922ba241d8a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C97E9DDD-B7C1-4E88-B2B9-A99E2BBCA835}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Barrido Castles.xlsx
+++ b/Barrido Castles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mercadona365.sharepoint.com/sites/CobraralJefe-Lane5000_Incidencias/Documentos compartidos/app-incidencias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="267" documentId="13_ncr:1_{6DC7A7B7-37BD-5B44-898F-0732FBDBB1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AB97725-8BEB-4BEF-86D8-4848424D6A72}"/>
+  <xr:revisionPtr revIDLastSave="271" documentId="13_ncr:1_{6DC7A7B7-37BD-5B44-898F-0732FBDBB1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD9A91D-5136-D248-A31B-A9A81F455CF7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DD37FD51-E798-DB46-A1AA-F8398B51C9AE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{DD37FD51-E798-DB46-A1AA-F8398B51C9AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1517,20 +1517,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3C3A91-7800-E844-B19F-13C9423669F4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G430" sqref="G430"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25">
+    <row r="1" spans="1:8" ht="22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>2565</v>
       </c>
@@ -1578,7 +1579,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2565</v>
       </c>
@@ -1603,7 +1604,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2806</v>
       </c>
@@ -1628,7 +1629,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2806</v>
       </c>
@@ -1653,7 +1654,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2806</v>
       </c>
@@ -1678,7 +1679,7 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>4672</v>
       </c>
@@ -1703,7 +1704,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4672</v>
       </c>
@@ -1728,7 +1729,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>4672</v>
       </c>
@@ -1753,7 +1754,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>2663</v>
       </c>
@@ -1778,7 +1779,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>2663</v>
       </c>
@@ -1803,7 +1804,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>2419</v>
       </c>
@@ -1828,7 +1829,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2419</v>
       </c>
@@ -1853,7 +1854,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>2413</v>
       </c>
@@ -1878,7 +1879,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2413</v>
       </c>
@@ -1903,7 +1904,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>2413</v>
       </c>
@@ -1928,7 +1929,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>2475</v>
       </c>
@@ -1953,7 +1954,7 @@
       </c>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>2475</v>
       </c>
@@ -1978,7 +1979,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>2475</v>
       </c>
@@ -2003,7 +2004,7 @@
       </c>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>2673</v>
       </c>
@@ -2028,7 +2029,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>2673</v>
       </c>
@@ -2053,7 +2054,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>2428</v>
       </c>
@@ -2078,7 +2079,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>2428</v>
       </c>
@@ -2103,7 +2104,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>2428</v>
       </c>
@@ -2128,7 +2129,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>2428</v>
       </c>
@@ -2153,7 +2154,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>3103</v>
       </c>
@@ -2178,7 +2179,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>3103</v>
       </c>
@@ -2203,7 +2204,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>3103</v>
       </c>
@@ -2228,7 +2229,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>2667</v>
       </c>
@@ -2253,7 +2254,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>2667</v>
       </c>
@@ -2278,7 +2279,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>3075</v>
       </c>
@@ -2303,7 +2304,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>3075</v>
       </c>
@@ -2328,7 +2329,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>3075</v>
       </c>
@@ -2353,7 +2354,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>2693</v>
       </c>
@@ -2378,7 +2379,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>2693</v>
       </c>
@@ -2403,7 +2404,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>2693</v>
       </c>
@@ -2428,7 +2429,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>3957</v>
       </c>
@@ -2453,7 +2454,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>3957</v>
       </c>
@@ -2478,7 +2479,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>3957</v>
       </c>
@@ -2503,7 +2504,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>3957</v>
       </c>
@@ -2528,7 +2529,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>2432</v>
       </c>
@@ -2553,7 +2554,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>2432</v>
       </c>
@@ -2578,7 +2579,7 @@
       </c>
       <c r="H42" s="4"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>2432</v>
       </c>
@@ -2603,7 +2604,7 @@
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>2458</v>
       </c>
@@ -2628,7 +2629,7 @@
       </c>
       <c r="H44" s="4"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>2458</v>
       </c>
@@ -2653,7 +2654,7 @@
       </c>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>4504</v>
       </c>
@@ -2678,7 +2679,7 @@
       </c>
       <c r="H46" s="4"/>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>4504</v>
       </c>
@@ -2703,7 +2704,7 @@
       </c>
       <c r="H47" s="4"/>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>4504</v>
       </c>
@@ -2728,7 +2729,7 @@
       </c>
       <c r="H48" s="4"/>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>2436</v>
       </c>
@@ -2753,7 +2754,7 @@
       </c>
       <c r="H49" s="4"/>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>2436</v>
       </c>
@@ -2778,7 +2779,7 @@
       </c>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>2653</v>
       </c>
@@ -2803,7 +2804,7 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>2653</v>
       </c>
@@ -2828,7 +2829,7 @@
       </c>
       <c r="H52" s="4"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>2653</v>
       </c>
@@ -2853,7 +2854,7 @@
       </c>
       <c r="H53" s="4"/>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>2786</v>
       </c>
@@ -2878,7 +2879,7 @@
       </c>
       <c r="H54" s="4"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>2786</v>
       </c>
@@ -2903,7 +2904,7 @@
       </c>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>2786</v>
       </c>
@@ -2928,7 +2929,7 @@
       </c>
       <c r="H56" s="4"/>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>3965</v>
       </c>
@@ -2953,7 +2954,7 @@
       </c>
       <c r="H57" s="4"/>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>3965</v>
       </c>
@@ -2978,7 +2979,7 @@
       </c>
       <c r="H58" s="4"/>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>3965</v>
       </c>
@@ -3003,7 +3004,7 @@
       </c>
       <c r="H59" s="4"/>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>2598</v>
       </c>
@@ -3028,7 +3029,7 @@
       </c>
       <c r="H60" s="4"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>2598</v>
       </c>
@@ -3053,7 +3054,7 @@
       </c>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>2598</v>
       </c>
@@ -3078,7 +3079,7 @@
       </c>
       <c r="H62" s="4"/>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>2402</v>
       </c>
@@ -3103,7 +3104,7 @@
       </c>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>2402</v>
       </c>
@@ -3128,7 +3129,7 @@
       </c>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>2402</v>
       </c>
@@ -3153,7 +3154,7 @@
       </c>
       <c r="H65" s="4"/>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>2402</v>
       </c>
@@ -3178,7 +3179,7 @@
       </c>
       <c r="H66" s="4"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>2762</v>
       </c>
@@ -3203,7 +3204,7 @@
       </c>
       <c r="H67" s="4"/>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>2762</v>
       </c>
@@ -3228,7 +3229,7 @@
       </c>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>2762</v>
       </c>
@@ -3253,7 +3254,7 @@
       </c>
       <c r="H69" s="4"/>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>2718</v>
       </c>
@@ -3278,7 +3279,7 @@
       </c>
       <c r="H70" s="4"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>2718</v>
       </c>
@@ -3303,7 +3304,7 @@
       </c>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2718</v>
       </c>
@@ -3328,7 +3329,7 @@
       </c>
       <c r="H72" s="4"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>4523</v>
       </c>
@@ -3353,7 +3354,7 @@
       </c>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>4523</v>
       </c>
@@ -3378,7 +3379,7 @@
       </c>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>4523</v>
       </c>
@@ -3403,7 +3404,7 @@
       </c>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>3481</v>
       </c>
@@ -3428,7 +3429,7 @@
       </c>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>3481</v>
       </c>
@@ -3453,7 +3454,7 @@
       </c>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>3857</v>
       </c>
@@ -3478,7 +3479,7 @@
       </c>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>3857</v>
       </c>
@@ -3503,7 +3504,7 @@
       </c>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>3857</v>
       </c>
@@ -3528,7 +3529,7 @@
       </c>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>2457</v>
       </c>
@@ -3553,7 +3554,7 @@
       </c>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2457</v>
       </c>
@@ -3578,7 +3579,7 @@
       </c>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>2457</v>
       </c>
@@ -3603,7 +3604,7 @@
       </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>2311</v>
       </c>
@@ -3628,7 +3629,7 @@
       </c>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>2311</v>
       </c>
@@ -3653,7 +3654,7 @@
       </c>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>2311</v>
       </c>
@@ -3678,7 +3679,7 @@
       </c>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>2588</v>
       </c>
@@ -3703,7 +3704,7 @@
       </c>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>2588</v>
       </c>
@@ -3728,7 +3729,7 @@
       </c>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>2588</v>
       </c>
@@ -3753,7 +3754,7 @@
       </c>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>4682</v>
       </c>
@@ -3778,7 +3779,7 @@
       </c>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>4682</v>
       </c>
@@ -3803,7 +3804,7 @@
       </c>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>4682</v>
       </c>
@@ -3828,7 +3829,7 @@
       </c>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>2418</v>
       </c>
@@ -3853,7 +3854,7 @@
       </c>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>2418</v>
       </c>
@@ -3878,7 +3879,7 @@
       </c>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>2418</v>
       </c>
@@ -3903,7 +3904,7 @@
       </c>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>4583</v>
       </c>
@@ -3928,7 +3929,7 @@
       </c>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>4583</v>
       </c>
@@ -3953,7 +3954,7 @@
       </c>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>4583</v>
       </c>
@@ -3978,7 +3979,7 @@
       </c>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>4583</v>
       </c>
@@ -4003,7 +4004,7 @@
       </c>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>2857</v>
       </c>
@@ -4028,7 +4029,7 @@
       </c>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>2857</v>
       </c>
@@ -4053,7 +4054,7 @@
       </c>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>2857</v>
       </c>
@@ -4078,7 +4079,7 @@
       </c>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>2702</v>
       </c>
@@ -4103,7 +4104,7 @@
       </c>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>2702</v>
       </c>
@@ -4128,7 +4129,7 @@
       </c>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>2702</v>
       </c>
@@ -4153,7 +4154,7 @@
       </c>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>4347</v>
       </c>
@@ -4178,7 +4179,7 @@
       </c>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>4347</v>
       </c>
@@ -4203,7 +4204,7 @@
       </c>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>4347</v>
       </c>
@@ -4228,7 +4229,7 @@
       </c>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>2448</v>
       </c>
@@ -4253,7 +4254,7 @@
       </c>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>2448</v>
       </c>
@@ -4278,7 +4279,7 @@
       </c>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>2448</v>
       </c>
@@ -4303,7 +4304,7 @@
       </c>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>2448</v>
       </c>
@@ -4328,7 +4329,7 @@
       </c>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>2508</v>
       </c>
@@ -4353,7 +4354,7 @@
       </c>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>2508</v>
       </c>
@@ -4378,7 +4379,7 @@
       </c>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>3759</v>
       </c>
@@ -4403,7 +4404,7 @@
       </c>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>3759</v>
       </c>
@@ -4428,7 +4429,7 @@
       </c>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>3759</v>
       </c>
@@ -4453,7 +4454,7 @@
       </c>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>3759</v>
       </c>
@@ -4478,7 +4479,7 @@
       </c>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>2331</v>
       </c>
@@ -4503,7 +4504,7 @@
       </c>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>2331</v>
       </c>
@@ -4528,7 +4529,7 @@
       </c>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>2331</v>
       </c>
@@ -4553,7 +4554,7 @@
       </c>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>2547</v>
       </c>
@@ -4578,7 +4579,7 @@
       </c>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>2547</v>
       </c>
@@ -4603,7 +4604,7 @@
       </c>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>2547</v>
       </c>
@@ -4628,7 +4629,7 @@
       </c>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>3970</v>
       </c>
@@ -4653,7 +4654,7 @@
       </c>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>3970</v>
       </c>
@@ -4678,7 +4679,7 @@
       </c>
       <c r="H126" s="4"/>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>3970</v>
       </c>
@@ -4703,7 +4704,7 @@
       </c>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>3970</v>
       </c>
@@ -4728,7 +4729,7 @@
       </c>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>2473</v>
       </c>
@@ -4753,7 +4754,7 @@
       </c>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>2473</v>
       </c>
@@ -4778,7 +4779,7 @@
       </c>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>2473</v>
       </c>
@@ -4803,7 +4804,7 @@
       </c>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>4626</v>
       </c>
@@ -4828,7 +4829,7 @@
       </c>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>4626</v>
       </c>
@@ -4853,7 +4854,7 @@
       </c>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>4626</v>
       </c>
@@ -4878,7 +4879,7 @@
       </c>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>2658</v>
       </c>
@@ -4903,7 +4904,7 @@
       </c>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>2658</v>
       </c>
@@ -4928,7 +4929,7 @@
       </c>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>3835</v>
       </c>
@@ -4953,7 +4954,7 @@
       </c>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>3835</v>
       </c>
@@ -4978,7 +4979,7 @@
       </c>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>3835</v>
       </c>
@@ -5003,7 +5004,7 @@
       </c>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>3418</v>
       </c>
@@ -5028,7 +5029,7 @@
       </c>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>3418</v>
       </c>
@@ -5053,7 +5054,7 @@
       </c>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>4650</v>
       </c>
@@ -5078,7 +5079,7 @@
       </c>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>4650</v>
       </c>
@@ -5103,7 +5104,7 @@
       </c>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>4650</v>
       </c>
@@ -5128,7 +5129,7 @@
       </c>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>2063</v>
       </c>
@@ -5153,7 +5154,7 @@
       </c>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>2063</v>
       </c>
@@ -5178,7 +5179,7 @@
       </c>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>2063</v>
       </c>
@@ -5203,7 +5204,7 @@
       </c>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>4170</v>
       </c>
@@ -5228,7 +5229,7 @@
       </c>
       <c r="H148" s="4"/>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>4170</v>
       </c>
@@ -5253,7 +5254,7 @@
       </c>
       <c r="H149" s="4"/>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>4170</v>
       </c>
@@ -5278,7 +5279,7 @@
       </c>
       <c r="H150" s="4"/>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>2559</v>
       </c>
@@ -5303,7 +5304,7 @@
       </c>
       <c r="H151" s="4"/>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>2559</v>
       </c>
@@ -5328,7 +5329,7 @@
       </c>
       <c r="H152" s="4"/>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>2559</v>
       </c>
@@ -5353,7 +5354,7 @@
       </c>
       <c r="H153" s="4"/>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>2559</v>
       </c>
@@ -5378,7 +5379,7 @@
       </c>
       <c r="H154" s="4"/>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>3248</v>
       </c>
@@ -5403,7 +5404,7 @@
       </c>
       <c r="H155" s="4"/>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>3248</v>
       </c>
@@ -5428,7 +5429,7 @@
       </c>
       <c r="H156" s="4"/>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>3248</v>
       </c>
@@ -5453,7 +5454,7 @@
       </c>
       <c r="H157" s="4"/>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>3248</v>
       </c>
@@ -5478,7 +5479,7 @@
       </c>
       <c r="H158" s="4"/>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>3410</v>
       </c>
@@ -5503,7 +5504,7 @@
       </c>
       <c r="H159" s="4"/>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>3410</v>
       </c>
@@ -5528,7 +5529,7 @@
       </c>
       <c r="H160" s="4"/>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>2196</v>
       </c>
@@ -5553,7 +5554,7 @@
       </c>
       <c r="H161" s="4"/>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>2196</v>
       </c>
@@ -5578,7 +5579,7 @@
       </c>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>2642</v>
       </c>
@@ -5603,7 +5604,7 @@
       </c>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>2642</v>
       </c>
@@ -5628,7 +5629,7 @@
       </c>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>2720</v>
       </c>
@@ -5653,7 +5654,7 @@
       </c>
       <c r="H165" s="4"/>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>2720</v>
       </c>
@@ -5678,7 +5679,7 @@
       </c>
       <c r="H166" s="4"/>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>2546</v>
       </c>
@@ -5703,7 +5704,7 @@
       </c>
       <c r="H167" s="4"/>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>2546</v>
       </c>
@@ -5728,7 +5729,7 @@
       </c>
       <c r="H168" s="4"/>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>2689</v>
       </c>
@@ -5753,7 +5754,7 @@
       </c>
       <c r="H169" s="4"/>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>2689</v>
       </c>
@@ -5778,7 +5779,7 @@
       </c>
       <c r="H170" s="4"/>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>2689</v>
       </c>
@@ -5803,7 +5804,7 @@
       </c>
       <c r="H171" s="4"/>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>2576</v>
       </c>
@@ -5828,7 +5829,7 @@
       </c>
       <c r="H172" s="4"/>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>2576</v>
       </c>
@@ -5853,7 +5854,7 @@
       </c>
       <c r="H173" s="4"/>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>4740</v>
       </c>
@@ -5878,7 +5879,7 @@
       </c>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>4740</v>
       </c>
@@ -5903,7 +5904,7 @@
       </c>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>4740</v>
       </c>
@@ -5928,7 +5929,7 @@
       </c>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>2459</v>
       </c>
@@ -5953,7 +5954,7 @@
       </c>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>2459</v>
       </c>
@@ -5978,7 +5979,7 @@
       </c>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>2748</v>
       </c>
@@ -6003,7 +6004,7 @@
       </c>
       <c r="H179" s="4"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>2748</v>
       </c>
@@ -6028,7 +6029,7 @@
       </c>
       <c r="H180" s="4"/>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>3740</v>
       </c>
@@ -6053,7 +6054,7 @@
       </c>
       <c r="H181" s="4"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>3740</v>
       </c>
@@ -6078,7 +6079,7 @@
       </c>
       <c r="H182" s="4"/>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>3740</v>
       </c>
@@ -6103,7 +6104,7 @@
       </c>
       <c r="H183" s="4"/>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>2263</v>
       </c>
@@ -6128,7 +6129,7 @@
       </c>
       <c r="H184" s="4"/>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>2263</v>
       </c>
@@ -6153,7 +6154,7 @@
       </c>
       <c r="H185" s="4"/>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>2469</v>
       </c>
@@ -6178,7 +6179,7 @@
       </c>
       <c r="H186" s="4"/>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>2469</v>
       </c>
@@ -6203,7 +6204,7 @@
       </c>
       <c r="H187" s="4"/>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>2469</v>
       </c>
@@ -6228,7 +6229,7 @@
       </c>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>3015</v>
       </c>
@@ -6253,7 +6254,7 @@
       </c>
       <c r="H189" s="4"/>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>3015</v>
       </c>
@@ -6278,7 +6279,7 @@
       </c>
       <c r="H190" s="4"/>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>3015</v>
       </c>
@@ -6303,7 +6304,7 @@
       </c>
       <c r="H191" s="4"/>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>3015</v>
       </c>
@@ -6328,7 +6329,7 @@
       </c>
       <c r="H192" s="4"/>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>4535</v>
       </c>
@@ -6353,7 +6354,7 @@
       </c>
       <c r="H193" s="4"/>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>4535</v>
       </c>
@@ -6378,7 +6379,7 @@
       </c>
       <c r="H194" s="4"/>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>4535</v>
       </c>
@@ -6403,7 +6404,7 @@
       </c>
       <c r="H195" s="4"/>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>2447</v>
       </c>
@@ -6428,7 +6429,7 @@
       </c>
       <c r="H196" s="4"/>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>2447</v>
       </c>
@@ -6453,7 +6454,7 @@
       </c>
       <c r="H197" s="4"/>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>2514</v>
       </c>
@@ -6478,7 +6479,7 @@
       </c>
       <c r="H198" s="4"/>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>2514</v>
       </c>
@@ -6503,7 +6504,7 @@
       </c>
       <c r="H199" s="4"/>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>2514</v>
       </c>
@@ -6528,7 +6529,7 @@
       </c>
       <c r="H200" s="4"/>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>2670</v>
       </c>
@@ -6553,7 +6554,7 @@
       </c>
       <c r="H201" s="4"/>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>2670</v>
       </c>
@@ -6578,7 +6579,7 @@
       </c>
       <c r="H202" s="4"/>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>2670</v>
       </c>
@@ -6603,7 +6604,7 @@
       </c>
       <c r="H203" s="4"/>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>2781</v>
       </c>
@@ -6628,7 +6629,7 @@
       </c>
       <c r="H204" s="4"/>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>2781</v>
       </c>
@@ -6653,7 +6654,7 @@
       </c>
       <c r="H205" s="4"/>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>2781</v>
       </c>
@@ -6678,7 +6679,7 @@
       </c>
       <c r="H206" s="4"/>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>4727</v>
       </c>
@@ -6703,7 +6704,7 @@
       </c>
       <c r="H207" s="4"/>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>4727</v>
       </c>
@@ -6728,7 +6729,7 @@
       </c>
       <c r="H208" s="4"/>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>4727</v>
       </c>
@@ -6753,7 +6754,7 @@
       </c>
       <c r="H209" s="4"/>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>4455</v>
       </c>
@@ -6778,7 +6779,7 @@
       </c>
       <c r="H210" s="4"/>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>4455</v>
       </c>
@@ -6803,7 +6804,7 @@
       </c>
       <c r="H211" s="4"/>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>4455</v>
       </c>
@@ -6828,7 +6829,7 @@
       </c>
       <c r="H212" s="4"/>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>2964</v>
       </c>
@@ -6853,7 +6854,7 @@
       </c>
       <c r="H213" s="4"/>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>2964</v>
       </c>
@@ -6878,7 +6879,7 @@
       </c>
       <c r="H214" s="4"/>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>2452</v>
       </c>
@@ -6903,7 +6904,7 @@
       </c>
       <c r="H215" s="4"/>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>2452</v>
       </c>
@@ -6928,7 +6929,7 @@
       </c>
       <c r="H216" s="4"/>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>4488</v>
       </c>
@@ -6953,7 +6954,7 @@
       </c>
       <c r="H217" s="4"/>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>4488</v>
       </c>
@@ -6978,7 +6979,7 @@
       </c>
       <c r="H218" s="4"/>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>4488</v>
       </c>
@@ -7003,7 +7004,7 @@
       </c>
       <c r="H219" s="4"/>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>2691</v>
       </c>
@@ -7028,7 +7029,7 @@
       </c>
       <c r="H220" s="4"/>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>2691</v>
       </c>
@@ -7053,7 +7054,7 @@
       </c>
       <c r="H221" s="4"/>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>2691</v>
       </c>
@@ -7078,7 +7079,7 @@
       </c>
       <c r="H222" s="4"/>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>2133</v>
       </c>
@@ -7103,7 +7104,7 @@
       </c>
       <c r="H223" s="4"/>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>2133</v>
       </c>
@@ -7128,7 +7129,7 @@
       </c>
       <c r="H224" s="4"/>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>2133</v>
       </c>
@@ -7153,7 +7154,7 @@
       </c>
       <c r="H225" s="4"/>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>2297</v>
       </c>
@@ -7178,7 +7179,7 @@
       </c>
       <c r="H226" s="4"/>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>2297</v>
       </c>
@@ -7203,7 +7204,7 @@
       </c>
       <c r="H227" s="4"/>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>4435</v>
       </c>
@@ -7228,7 +7229,7 @@
       </c>
       <c r="H228" s="4"/>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>4435</v>
       </c>
@@ -7253,7 +7254,7 @@
       </c>
       <c r="H229" s="4"/>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>4435</v>
       </c>
@@ -7278,7 +7279,7 @@
       </c>
       <c r="H230" s="4"/>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>2683</v>
       </c>
@@ -7303,7 +7304,7 @@
       </c>
       <c r="H231" s="4"/>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>2683</v>
       </c>
@@ -7328,7 +7329,7 @@
       </c>
       <c r="H232" s="4"/>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>2427</v>
       </c>
@@ -7353,7 +7354,7 @@
       </c>
       <c r="H233" s="4"/>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>2427</v>
       </c>
@@ -7378,7 +7379,7 @@
       </c>
       <c r="H234" s="4"/>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>3901</v>
       </c>
@@ -7403,7 +7404,7 @@
       </c>
       <c r="H235" s="4"/>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>3901</v>
       </c>
@@ -7428,7 +7429,7 @@
       </c>
       <c r="H236" s="4"/>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>3901</v>
       </c>
@@ -7453,7 +7454,7 @@
       </c>
       <c r="H237" s="4"/>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>3901</v>
       </c>
@@ -7478,7 +7479,7 @@
       </c>
       <c r="H238" s="4"/>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>4385</v>
       </c>
@@ -7503,7 +7504,7 @@
       </c>
       <c r="H239" s="4"/>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>4385</v>
       </c>
@@ -7528,7 +7529,7 @@
       </c>
       <c r="H240" s="4"/>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>4385</v>
       </c>
@@ -7553,7 +7554,7 @@
       </c>
       <c r="H241" s="4"/>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>4249</v>
       </c>
@@ -7578,7 +7579,7 @@
       </c>
       <c r="H242" s="4"/>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>4249</v>
       </c>
@@ -7603,7 +7604,7 @@
       </c>
       <c r="H243" s="4"/>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>4249</v>
       </c>
@@ -7628,7 +7629,7 @@
       </c>
       <c r="H244" s="4"/>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>4249</v>
       </c>
@@ -7653,7 +7654,7 @@
       </c>
       <c r="H245" s="4"/>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>4249</v>
       </c>
@@ -7678,7 +7679,7 @@
       </c>
       <c r="H246" s="4"/>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>4249</v>
       </c>
@@ -7703,7 +7704,7 @@
       </c>
       <c r="H247" s="4"/>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>3942</v>
       </c>
@@ -7728,7 +7729,7 @@
       </c>
       <c r="H248" s="4"/>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>3942</v>
       </c>
@@ -7753,7 +7754,7 @@
       </c>
       <c r="H249" s="4"/>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>3942</v>
       </c>
@@ -7778,7 +7779,7 @@
       </c>
       <c r="H250" s="4"/>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>3942</v>
       </c>
@@ -7803,7 +7804,7 @@
       </c>
       <c r="H251" s="4"/>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>3942</v>
       </c>
@@ -7828,7 +7829,7 @@
       </c>
       <c r="H252" s="4"/>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>2431</v>
       </c>
@@ -7853,7 +7854,7 @@
       </c>
       <c r="H253" s="4"/>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>2431</v>
       </c>
@@ -7878,7 +7879,7 @@
       </c>
       <c r="H254" s="4"/>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>2431</v>
       </c>
@@ -7903,7 +7904,7 @@
       </c>
       <c r="H255" s="4"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>2910</v>
       </c>
@@ -7928,7 +7929,7 @@
       </c>
       <c r="H256" s="4"/>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>2910</v>
       </c>
@@ -7953,7 +7954,7 @@
       </c>
       <c r="H257" s="4"/>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>2423</v>
       </c>
@@ -7978,7 +7979,7 @@
       </c>
       <c r="H258" s="4"/>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>2423</v>
       </c>
@@ -8003,7 +8004,7 @@
       </c>
       <c r="H259" s="4"/>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>2423</v>
       </c>
@@ -8028,7 +8029,7 @@
       </c>
       <c r="H260" s="4"/>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>2423</v>
       </c>
@@ -8053,7 +8054,7 @@
       </c>
       <c r="H261" s="4"/>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>2519</v>
       </c>
@@ -8078,7 +8079,7 @@
       </c>
       <c r="H262" s="4"/>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>2519</v>
       </c>
@@ -8103,7 +8104,7 @@
       </c>
       <c r="H263" s="4"/>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>2519</v>
       </c>
@@ -8128,7 +8129,7 @@
       </c>
       <c r="H264" s="4"/>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>2519</v>
       </c>
@@ -8153,7 +8154,7 @@
       </c>
       <c r="H265" s="4"/>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>2518</v>
       </c>
@@ -8178,7 +8179,7 @@
       </c>
       <c r="H266" s="4"/>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>2518</v>
       </c>
@@ -8203,7 +8204,7 @@
       </c>
       <c r="H267" s="4"/>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>2518</v>
       </c>
@@ -8228,7 +8229,7 @@
       </c>
       <c r="H268" s="4"/>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>2455</v>
       </c>
@@ -8253,7 +8254,7 @@
       </c>
       <c r="H269" s="4"/>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>2455</v>
       </c>
@@ -8278,7 +8279,7 @@
       </c>
       <c r="H270" s="4"/>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>2834</v>
       </c>
@@ -8303,7 +8304,7 @@
       </c>
       <c r="H271" s="4"/>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>2834</v>
       </c>
@@ -8328,7 +8329,7 @@
       </c>
       <c r="H272" s="4"/>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>2834</v>
       </c>
@@ -8353,7 +8354,7 @@
       </c>
       <c r="H273" s="4"/>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>2516</v>
       </c>
@@ -8378,7 +8379,7 @@
       </c>
       <c r="H274" s="4"/>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>2516</v>
       </c>
@@ -8403,7 +8404,7 @@
       </c>
       <c r="H275" s="4"/>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>2516</v>
       </c>
@@ -8428,7 +8429,7 @@
       </c>
       <c r="H276" s="4"/>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>2411</v>
       </c>
@@ -8453,7 +8454,7 @@
       </c>
       <c r="H277" s="4"/>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>2411</v>
       </c>
@@ -8478,7 +8479,7 @@
       </c>
       <c r="H278" s="4"/>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>2606</v>
       </c>
@@ -8503,7 +8504,7 @@
       </c>
       <c r="H279" s="4"/>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>2606</v>
       </c>
@@ -8528,7 +8529,7 @@
       </c>
       <c r="H280" s="4"/>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>3460</v>
       </c>
@@ -8553,7 +8554,7 @@
       </c>
       <c r="H281" s="4"/>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>3460</v>
       </c>
@@ -8578,7 +8579,7 @@
       </c>
       <c r="H282" s="4"/>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>3460</v>
       </c>
@@ -8603,7 +8604,7 @@
       </c>
       <c r="H283" s="4"/>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>3843</v>
       </c>
@@ -8628,7 +8629,7 @@
       </c>
       <c r="H284" s="4"/>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>3843</v>
       </c>
@@ -8653,7 +8654,7 @@
       </c>
       <c r="H285" s="4"/>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>3843</v>
       </c>
@@ -8678,7 +8679,7 @@
       </c>
       <c r="H286" s="4"/>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>2544</v>
       </c>
@@ -8703,7 +8704,7 @@
       </c>
       <c r="H287" s="4"/>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>2544</v>
       </c>
@@ -8728,7 +8729,7 @@
       </c>
       <c r="H288" s="4"/>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>2544</v>
       </c>
@@ -8753,7 +8754,7 @@
       </c>
       <c r="H289" s="4"/>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>2810</v>
       </c>
@@ -8778,7 +8779,7 @@
       </c>
       <c r="H290" s="4"/>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>2810</v>
       </c>
@@ -8803,7 +8804,7 @@
       </c>
       <c r="H291" s="4"/>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>2810</v>
       </c>
@@ -8828,7 +8829,7 @@
       </c>
       <c r="H292" s="4"/>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>2810</v>
       </c>
@@ -8853,7 +8854,7 @@
       </c>
       <c r="H293" s="4"/>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>3494</v>
       </c>
@@ -8878,7 +8879,7 @@
       </c>
       <c r="H294" s="4"/>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>3494</v>
       </c>
@@ -8903,7 +8904,7 @@
       </c>
       <c r="H295" s="4"/>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>3494</v>
       </c>
@@ -8928,7 +8929,7 @@
       </c>
       <c r="H296" s="4"/>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>2521</v>
       </c>
@@ -8953,7 +8954,7 @@
       </c>
       <c r="H297" s="4"/>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>2521</v>
       </c>
@@ -8978,7 +8979,7 @@
       </c>
       <c r="H298" s="4"/>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>2521</v>
       </c>
@@ -9003,7 +9004,7 @@
       </c>
       <c r="H299" s="4"/>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>2521</v>
       </c>
@@ -9028,7 +9029,7 @@
       </c>
       <c r="H300" s="4"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>2502</v>
       </c>
@@ -9053,7 +9054,7 @@
       </c>
       <c r="H301" s="4"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>2502</v>
       </c>
@@ -9078,7 +9079,7 @@
       </c>
       <c r="H302" s="4"/>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>2502</v>
       </c>
@@ -9103,7 +9104,7 @@
       </c>
       <c r="H303" s="4"/>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>3678</v>
       </c>
@@ -9128,7 +9129,7 @@
       </c>
       <c r="H304" s="4"/>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>3678</v>
       </c>
@@ -9153,7 +9154,7 @@
       </c>
       <c r="H305" s="4"/>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>3678</v>
       </c>
@@ -9178,7 +9179,7 @@
       </c>
       <c r="H306" s="4"/>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>3547</v>
       </c>
@@ -9203,7 +9204,7 @@
       </c>
       <c r="H307" s="4"/>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>3547</v>
       </c>
@@ -9228,7 +9229,7 @@
       </c>
       <c r="H308" s="4"/>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>3547</v>
       </c>
@@ -9253,7 +9254,7 @@
       </c>
       <c r="H309" s="4"/>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>3547</v>
       </c>
@@ -9278,7 +9279,7 @@
       </c>
       <c r="H310" s="4"/>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>2685</v>
       </c>
@@ -9303,7 +9304,7 @@
       </c>
       <c r="H311" s="4"/>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>2685</v>
       </c>
@@ -9328,7 +9329,7 @@
       </c>
       <c r="H312" s="4"/>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>2685</v>
       </c>
@@ -9353,7 +9354,7 @@
       </c>
       <c r="H313" s="4"/>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>2685</v>
       </c>
@@ -9378,7 +9379,7 @@
       </c>
       <c r="H314" s="4"/>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>3856</v>
       </c>
@@ -9403,7 +9404,7 @@
       </c>
       <c r="H315" s="4"/>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>3856</v>
       </c>
@@ -9428,7 +9429,7 @@
       </c>
       <c r="H316" s="4"/>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>3856</v>
       </c>
@@ -9453,7 +9454,7 @@
       </c>
       <c r="H317" s="4"/>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>2466</v>
       </c>
@@ -9478,7 +9479,7 @@
       </c>
       <c r="H318" s="4"/>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>2466</v>
       </c>
@@ -9503,7 +9504,7 @@
       </c>
       <c r="H319" s="4"/>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>2466</v>
       </c>
@@ -9528,7 +9529,7 @@
       </c>
       <c r="H320" s="4"/>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>2763</v>
       </c>
@@ -9553,7 +9554,7 @@
       </c>
       <c r="H321" s="4"/>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>2763</v>
       </c>
@@ -9578,7 +9579,7 @@
       </c>
       <c r="H322" s="4"/>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>2763</v>
       </c>
@@ -9603,7 +9604,7 @@
       </c>
       <c r="H323" s="4"/>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>3046</v>
       </c>
@@ -9624,11 +9625,11 @@
         <v>158240870248</v>
       </c>
       <c r="G324" s="5">
-        <v>45385.427083333336</v>
+        <v>45596.427083333336</v>
       </c>
       <c r="H324" s="4"/>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>3046</v>
       </c>
@@ -9637,7 +9638,7 @@
         <v>BÉTERA</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>8</v>
@@ -9653,7 +9654,7 @@
       </c>
       <c r="H325" s="4"/>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>3046</v>
       </c>
@@ -9678,7 +9679,7 @@
       </c>
       <c r="H326" s="4"/>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>4709</v>
       </c>
@@ -9695,7 +9696,7 @@
         <v>45553.663194444445</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>4709</v>
       </c>
@@ -9712,7 +9713,7 @@
         <v>45553.663194444445</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>4709</v>
       </c>
@@ -9729,7 +9730,7 @@
         <v>45553.663194444445</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>3098</v>
       </c>
@@ -9746,7 +9747,7 @@
         <v>45561.635416666664</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>3098</v>
       </c>
@@ -9763,7 +9764,7 @@
         <v>45561.635416666664</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>3098</v>
       </c>
@@ -9780,7 +9781,7 @@
         <v>45561.635416666664</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>4587</v>
       </c>
@@ -9797,7 +9798,7 @@
         <v>45552.538194444445</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>4587</v>
       </c>
@@ -9814,7 +9815,7 @@
         <v>45552.538194444445</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>4587</v>
       </c>
@@ -9831,7 +9832,7 @@
         <v>45552.538194444445</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>4587</v>
       </c>
@@ -9848,7 +9849,7 @@
         <v>45552.538194444445</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>4763</v>
       </c>
@@ -9865,7 +9866,7 @@
         <v>45552.538194444445</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>4763</v>
       </c>
@@ -9882,7 +9883,7 @@
         <v>45552.538194444445</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>4763</v>
       </c>
@@ -9899,7 +9900,7 @@
         <v>45552.538194444445</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>4558</v>
       </c>
@@ -9916,7 +9917,7 @@
         <v>45551.686111111114</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>4558</v>
       </c>
@@ -9933,7 +9934,7 @@
         <v>45551.686111111114</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>4558</v>
       </c>
@@ -9950,7 +9951,7 @@
         <v>45551.686111111114</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>4472</v>
       </c>
@@ -9967,7 +9968,7 @@
         <v>45561.572916666664</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>4472</v>
       </c>
@@ -9984,7 +9985,7 @@
         <v>45561.572916666664</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>4472</v>
       </c>
@@ -10001,7 +10002,7 @@
         <v>45561.572916666664</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>3819</v>
       </c>
@@ -10018,7 +10019,7 @@
         <v>45554.53125</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>3819</v>
       </c>
@@ -10035,7 +10036,7 @@
         <v>45554.53125</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>3819</v>
       </c>
@@ -10052,7 +10053,7 @@
         <v>45554.53125</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>4411</v>
       </c>
@@ -10069,7 +10070,7 @@
         <v>45562.53125</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>4411</v>
       </c>
@@ -10086,7 +10087,7 @@
         <v>45562.53125</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>4411</v>
       </c>
@@ -10103,7 +10104,7 @@
         <v>45562.53125</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>2304</v>
       </c>
@@ -10120,7 +10121,7 @@
         <v>45562.53125</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>2304</v>
       </c>
@@ -10137,7 +10138,7 @@
         <v>45562.53125</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>2304</v>
       </c>
@@ -10154,7 +10155,7 @@
         <v>45562.53125</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>4772</v>
       </c>
@@ -10174,7 +10175,7 @@
         <v>45566.53125</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>4772</v>
       </c>
@@ -10194,7 +10195,7 @@
         <v>45566.53125</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>4772</v>
       </c>
@@ -10214,7 +10215,7 @@
         <v>45566.53125</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>2198</v>
       </c>
@@ -10234,7 +10235,7 @@
         <v>45569.53125</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>2198</v>
       </c>
@@ -10254,7 +10255,7 @@
         <v>45569.53125</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>2749</v>
       </c>
@@ -10274,7 +10275,7 @@
         <v>45569.53125</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>2749</v>
       </c>
@@ -10294,7 +10295,7 @@
         <v>45569.53125</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>4037</v>
       </c>
@@ -10314,7 +10315,7 @@
         <v>45569.53125</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>4037</v>
       </c>
@@ -10334,7 +10335,7 @@
         <v>45569.53125</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>4342</v>
       </c>
@@ -10354,7 +10355,7 @@
         <v>45572.375</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>4342</v>
       </c>
@@ -10374,7 +10375,7 @@
         <v>45572.375</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>4342</v>
       </c>
@@ -10394,7 +10395,7 @@
         <v>45572.375</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>4526</v>
       </c>
@@ -10414,7 +10415,7 @@
         <v>45572.375</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>4526</v>
       </c>
@@ -10434,7 +10435,7 @@
         <v>45572.375</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>4526</v>
       </c>
@@ -10454,7 +10455,7 @@
         <v>45572.375</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>4088</v>
       </c>
@@ -10474,7 +10475,7 @@
         <v>45574.375</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>4088</v>
       </c>
@@ -10494,7 +10495,7 @@
         <v>45574.375</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>4088</v>
       </c>
@@ -10514,7 +10515,7 @@
         <v>45574.375</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>4425</v>
       </c>
@@ -10534,7 +10535,7 @@
         <v>45575.375</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>4425</v>
       </c>
@@ -10554,7 +10555,7 @@
         <v>45575.375</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>4425</v>
       </c>
@@ -10574,7 +10575,7 @@
         <v>45575.375</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>4512</v>
       </c>
@@ -10594,7 +10595,7 @@
         <v>45575.375</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>4512</v>
       </c>
@@ -10614,7 +10615,7 @@
         <v>45575.375</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>4512</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>45575.375</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>3960</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>45576.375</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>3960</v>
       </c>
@@ -10674,7 +10675,7 @@
         <v>45576.375</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>3960</v>
       </c>
@@ -10694,7 +10695,7 @@
         <v>45576.375</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>4388</v>
       </c>
@@ -10714,7 +10715,7 @@
         <v>45576.375</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>4388</v>
       </c>
@@ -10734,7 +10735,7 @@
         <v>45576.375</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>3730</v>
       </c>
@@ -10754,7 +10755,7 @@
         <v>45576.375</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>3730</v>
       </c>
@@ -10774,7 +10775,7 @@
         <v>45576.375</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>3730</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>45576.375</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>4117</v>
       </c>
@@ -10814,7 +10815,7 @@
         <v>45576.375</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>4117</v>
       </c>
@@ -10834,7 +10835,7 @@
         <v>45576.375</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>4474</v>
       </c>
@@ -10854,7 +10855,7 @@
         <v>45579.375</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>4474</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>45579.375</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>4474</v>
       </c>
@@ -10894,7 +10895,7 @@
         <v>45579.375</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>4474</v>
       </c>
@@ -10914,7 +10915,7 @@
         <v>45579.375</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>2640</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>45579.375</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>2640</v>
       </c>
@@ -10954,7 +10955,7 @@
         <v>45579.375</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>2640</v>
       </c>
@@ -10974,7 +10975,7 @@
         <v>45579.375</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>2640</v>
       </c>
@@ -10994,7 +10995,7 @@
         <v>45579.375</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>4115</v>
       </c>
@@ -11014,7 +11015,7 @@
         <v>45580.375</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>4115</v>
       </c>
@@ -11034,7 +11035,7 @@
         <v>45580.375</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>4115</v>
       </c>
@@ -11054,7 +11055,7 @@
         <v>45580.375</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>3567</v>
       </c>
@@ -11074,7 +11075,7 @@
         <v>45580.375</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>3567</v>
       </c>
@@ -11094,7 +11095,7 @@
         <v>45580.375</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>3567</v>
       </c>
@@ -11114,7 +11115,7 @@
         <v>45580.375</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>3567</v>
       </c>
@@ -11134,7 +11135,7 @@
         <v>45580.375</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>4226</v>
       </c>
@@ -11154,7 +11155,7 @@
         <v>45582.375</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>4226</v>
       </c>
@@ -11174,7 +11175,7 @@
         <v>45582.375</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>4226</v>
       </c>
@@ -11194,7 +11195,7 @@
         <v>45582.375</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>2564</v>
       </c>
@@ -11214,7 +11215,7 @@
         <v>45583.375</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>2564</v>
       </c>
@@ -11234,7 +11235,7 @@
         <v>45583.375</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>2564</v>
       </c>
@@ -11254,7 +11255,7 @@
         <v>45583.375</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>2790</v>
       </c>
@@ -11274,7 +11275,7 @@
         <v>45583.375</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>2790</v>
       </c>
@@ -11294,7 +11295,7 @@
         <v>45583.375</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>2790</v>
       </c>
@@ -11314,7 +11315,7 @@
         <v>45583.375</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>3826</v>
       </c>
@@ -11334,7 +11335,7 @@
         <v>45589.375</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>3826</v>
       </c>
@@ -11354,7 +11355,7 @@
         <v>45589.375</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>3826</v>
       </c>
@@ -11374,7 +11375,7 @@
         <v>45589.375</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>3826</v>
       </c>
@@ -11394,7 +11395,7 @@
         <v>45589.375</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>3486</v>
       </c>
@@ -11414,7 +11415,7 @@
         <v>45589.375</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>3486</v>
       </c>
@@ -11434,7 +11435,7 @@
         <v>45589.375</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>3486</v>
       </c>
@@ -11455,19 +11456,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G419" xr:uid="{2E3C3A91-7800-E844-B19F-13C9423669F4}"/>
+  <autoFilter ref="A1:G419" xr:uid="{2E3C3A91-7800-E844-B19F-13C9423669F4}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="3046"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010019BEA7DDCE95554397EF968F05633347" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="1e619dd3bd4591ac9c839210a8c8c9ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="23ed0473-180d-470e-a07f-e717023ca225" xmlns:ns3="be7b8944-c626-4a4c-966d-922ba241d8a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6e8a7616da702416d6f6d1d80d0d674f" ns2:_="" ns3:_="">
     <xsd:import namespace="23ed0473-180d-470e-a07f-e717023ca225"/>
@@ -11668,6 +11669,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -11678,15 +11685,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27067B9E-5692-430A-9B35-98DDABC02BD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3303437-30A1-414A-B699-67B68CBDAE3C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11705,6 +11703,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27067B9E-5692-430A-9B35-98DDABC02BD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="be7b8944-c626-4a4c-966d-922ba241d8a4"/>
+    <ds:schemaRef ds:uri="23ed0473-180d-470e-a07f-e717023ca225"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C97E9DDD-B7C1-4E88-B2B9-A99E2BBCA835}">
   <ds:schemaRefs>
